--- a/data/extracted_data/const1/const1-trial2-tdoa2-results-updated-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial2-tdoa2-results-updated-describe.xlsx
@@ -605,7 +605,7 @@
         <v>1.391425450261691</v>
       </c>
       <c r="F3">
-        <v>0.01600261935224405</v>
+        <v>0.0136509508859024</v>
       </c>
       <c r="G3">
         <v>0.0001112700642680556</v>
@@ -620,7 +620,7 @@
         <v>0.7252036202737767</v>
       </c>
       <c r="K3">
-        <v>0.004202189818438692</v>
+        <v>0.003455082978170345</v>
       </c>
       <c r="L3">
         <v>3.507396207911082</v>
@@ -650,7 +650,7 @@
         <v>1.388260093221673</v>
       </c>
       <c r="U3">
-        <v>25.74890859856162</v>
+        <v>25.75102164458701</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -670,7 +670,7 @@
         <v>0.400870189085181</v>
       </c>
       <c r="F4">
-        <v>0.01751477951505789</v>
+        <v>0.0148577561826051</v>
       </c>
       <c r="G4">
         <v>0.0001301671487743067</v>
@@ -685,7 +685,7 @@
         <v>1.704231712633573</v>
       </c>
       <c r="K4">
-        <v>0.002955798362594133</v>
+        <v>0.003859218759797625</v>
       </c>
       <c r="L4">
         <v>2.299067663186985</v>
@@ -715,7 +715,7 @@
         <v>0.4010427797094641</v>
       </c>
       <c r="U4">
-        <v>14.88131244518765</v>
+        <v>14.88132776020122</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -780,7 +780,7 @@
         <v>0.0829999968409538</v>
       </c>
       <c r="U5">
-        <v>0.0023699999999953</v>
+        <v>0.004724333333329267</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -815,7 +815,7 @@
         <v>-0.4408605761159521</v>
       </c>
       <c r="K6">
-        <v>0.002990245819091797</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -845,7 +845,7 @@
         <v>1.189916719992956</v>
       </c>
       <c r="U6">
-        <v>12.8335465</v>
+        <v>12.83566425</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -865,7 +865,7 @@
         <v>1.423145381834082</v>
       </c>
       <c r="F7">
-        <v>0.001042485237121582</v>
+        <v>4.804134368896484E-05</v>
       </c>
       <c r="G7">
         <v>7.757094041882517E-05</v>
@@ -880,7 +880,7 @@
         <v>0.8394126892089844</v>
       </c>
       <c r="K7">
-        <v>0.004309892654418945</v>
+        <v>0.003144145011901855</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -910,7 +910,7 @@
         <v>1.420500000317892</v>
       </c>
       <c r="U7">
-        <v>25.751998</v>
+        <v>25.754085</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -930,7 +930,7 @@
         <v>1.701451824668126</v>
       </c>
       <c r="F8">
-        <v>0.0326075553894043</v>
+        <v>0.02848267555236816</v>
       </c>
       <c r="G8">
         <v>0.0001503867645417586</v>
@@ -945,7 +945,7 @@
         <v>1.894624746046011</v>
       </c>
       <c r="K8">
-        <v>0.005480051040649414</v>
+        <v>0.005086421966552734</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>1.698083291451137</v>
       </c>
       <c r="U8">
-        <v>38.61630049999999</v>
+        <v>38.61838874999999</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -995,7 +995,7 @@
         <v>1.982427468032487</v>
       </c>
       <c r="F9">
-        <v>0.2142720222473145</v>
+        <v>0.2758691310882568</v>
       </c>
       <c r="G9">
         <v>0.002834013067089192</v>
@@ -1010,7 +1010,7 @@
         <v>8.971990422200179</v>
       </c>
       <c r="K9">
-        <v>0.1056122779846191</v>
+        <v>0.0498354434967041</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1040,7 +1040,7 @@
         <v>1.871999979019165</v>
       </c>
       <c r="U9">
-        <v>51.708852</v>
+        <v>51.712379</v>
       </c>
     </row>
   </sheetData>
